--- a/sb/spec/fixtures/files/guarantee_registration/ok_with_client.xlsx
+++ b/sb/spec/fixtures/files/guarantee_registration/ok_with_client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\git\securebox\sb\spec\fixtures\files\guarantee_registration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71811C1-7654-4EC2-9939-1063FB8AD822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA6B620-C07D-49CA-BB06-DB3BE6BB3F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22785" windowHeight="14655" xr2:uid="{3B9B60B1-321A-4EE7-8C1C-3D25D6AF4CF8}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{3B9B60B1-321A-4EE7-8C1C-3D25D6AF4CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="保証依頼書 (GMO)" sheetId="1" r:id="rId1"/>
@@ -483,20 +483,20 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -816,7 +816,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -832,19 +832,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="17"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -907,17 +907,17 @@
         <v>9</v>
       </c>
       <c r="F4" s="14">
-        <v>44381</v>
+        <v>44380</v>
       </c>
       <c r="G4" s="14">
-        <v>44409</v>
+        <v>44415</v>
       </c>
       <c r="H4" s="15">
-        <v>5000000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -933,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="14">
-        <v>44380</v>
+        <v>44388</v>
       </c>
       <c r="G5" s="14">
         <v>44410</v>
@@ -943,7 +943,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
